--- a/evm_doc/功能20171109.xlsx
+++ b/evm_doc/功能20171109.xlsx
@@ -4,24 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7870"/>
+    <workbookView windowWidth="14640" windowHeight="7870" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="需求说明" sheetId="1" r:id="rId1"/>
+    <sheet name="首页示例" sheetId="2" r:id="rId2"/>
+    <sheet name="项目管理示例" sheetId="4" r:id="rId3"/>
+    <sheet name="维修导入示例" sheetId="3" r:id="rId4"/>
+    <sheet name="运维订单故障类型统计" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>页面说明</t>
   </si>
   <si>
     <t>功能点说明</t>
+  </si>
+  <si>
+    <t>说明</t>
   </si>
   <si>
     <t>首页</t>
@@ -62,18 +67,33 @@
   <si>
     <t>增加“订单编号""摄像机编号"IP"进行检索确认</t>
   </si>
+  <si>
+    <t>导入</t>
+  </si>
+  <si>
+    <t>设备管理</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>统计功能</t>
+  </si>
+  <si>
+    <t>运维订单按故障类型统计，形成图标</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,60 +110,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,7 +127,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,16 +233,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,52 +247,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -247,6 +260,174 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -256,181 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,20 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,21 +492,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,17 +511,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,171 +545,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -783,6 +799,1759 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="38100"/>
+          <a:ext cx="5810250" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="横卷形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="2717800"/>
+          <a:ext cx="1441450" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>快捷链接：转到订单维护界面，查看订单的详细信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2298700" y="1993900"/>
+          <a:ext cx="755650" cy="1158875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="横卷形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="2889250"/>
+          <a:ext cx="1441450" cy="1174750"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>快捷链接：快速链接到创建运维订单界面</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="71120" y="4743450"/>
+          <a:ext cx="7543165" cy="3784600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1555750" y="3751580"/>
+          <a:ext cx="22225" cy="1099820"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4216400" y="1911350"/>
+          <a:ext cx="619125" cy="1075690"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>559435</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772400" y="1720850"/>
+          <a:ext cx="6617335" cy="3060700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5556250" y="2076450"/>
+          <a:ext cx="2387600" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>610235</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="158750"/>
+          <a:ext cx="6654800" cy="2120900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>591185</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="615950" y="2260600"/>
+          <a:ext cx="6680835" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="横卷形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="1574800"/>
+          <a:ext cx="2749550" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>快捷链接：进入到更新客户信息界面</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3711575" y="825500"/>
+          <a:ext cx="85725" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1371600" y="1838325"/>
+          <a:ext cx="965200" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1949450" y="241300"/>
+          <a:ext cx="2559050" cy="2025650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>470535</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1930400" y="2476500"/>
+          <a:ext cx="6712585" cy="1098550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4603750" y="2635250"/>
+          <a:ext cx="1924050" cy="1549400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1244600" y="4203700"/>
+          <a:ext cx="3822700" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="4451350"/>
+          <a:ext cx="3854450" cy="1498600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="7016750"/>
+          <a:ext cx="5422900" cy="3397250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165735</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="横卷形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="482600" y="254000"/>
+          <a:ext cx="940435" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>导入模板：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>540385</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="横卷形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="540385" y="2495550"/>
+          <a:ext cx="940435" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>增加导入功能</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>394335</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="横卷形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1898650" y="6426200"/>
+          <a:ext cx="2896235" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>选择导入的内容，判断是否存入数据库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3175000" y="9982200"/>
+          <a:ext cx="1543050" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1073150" y="1041400"/>
+          <a:ext cx="3390900" cy="2089150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222885</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="横卷形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="984250" y="444500"/>
+          <a:ext cx="2896235" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>所有维修订单按时间范围，按类型统计，形成饼状图。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -791,7 +2560,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1072,8 +2841,8 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1090,11 +2859,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1102,27 +2873,27 @@
     <row r="3" ht="25" customHeight="1" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
+      <c r="A6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1130,13 +2901,13 @@
     <row r="7" ht="25" customHeight="1" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1144,20 +2915,20 @@
     <row r="9" ht="25" customHeight="1" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1165,27 +2936,27 @@
     <row r="12" ht="25" customHeight="1" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
+      <c r="A15" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1193,23 +2964,33 @@
     <row r="16" ht="25" customHeight="1" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:3">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:3">
@@ -1241,6 +3022,11 @@
     <row r="30" ht="25" customHeight="1"/>
     <row r="31" ht="25" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="项目管理示例!A1" display="项目管理"/>
+    <hyperlink ref="A2" location="首页示例!A1" display="首页"/>
+    <hyperlink ref="A15" location="维修导入示例!A1" display="维修订单创建"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1253,7 +3039,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1261,6 +3047,7 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1270,7 +3057,24 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1278,5 +3082,23 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>